--- a/Electricidad/uru/uru.xlsx
+++ b/Electricidad/uru/uru.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge Guerra\Desktop\Git-Hub\ProyectoReg\Electricidad\uru\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3. Git-Hub\ProyectoReg\Electricidad\uru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9258F14B-2A08-4A97-9DB1-2E3F9DFA5FED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC643F44-F073-4D4C-8697-C34711420048}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E26B7D2A-1D90-4761-8EF7-EE3A7D93609C}"/>
+    <workbookView xWindow="30795" yWindow="3225" windowWidth="9600" windowHeight="4905" xr2:uid="{E26B7D2A-1D90-4761-8EF7-EE3A7D93609C}"/>
   </bookViews>
   <sheets>
     <sheet name="M.Inicial" sheetId="2" r:id="rId1"/>
@@ -12036,8 +12036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4C14A4-198E-4965-A6F4-D4E1C1F31F1B}">
   <dimension ref="A1:F1930"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="F1929" sqref="F1929"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="86" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.1796875" defaultRowHeight="24.65" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12567,7 +12567,7 @@
         <v>2906</v>
       </c>
       <c r="B31" s="4" t="str">
-        <f>LEFT(A31,20)</f>
+        <f t="shared" ref="B31:B40" si="0">LEFT(A31,20)</f>
         <v xml:space="preserve">Resolución N° 2/003 </v>
       </c>
       <c r="C31" s="10" t="s">
@@ -12588,7 +12588,7 @@
         <v>3008</v>
       </c>
       <c r="B32" s="4" t="str">
-        <f>LEFT(A32,20)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Resolución N° 3/003 </v>
       </c>
       <c r="C32" s="10" t="s">
@@ -12609,7 +12609,7 @@
         <v>1830</v>
       </c>
       <c r="B33" s="4" t="str">
-        <f>LEFT(A33,20)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Resolución N° 4/003 </v>
       </c>
       <c r="C33" s="10" t="s">
@@ -12630,7 +12630,7 @@
         <v>2946</v>
       </c>
       <c r="B34" s="4" t="str">
-        <f>LEFT(A34,20)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Resolución N° 5/003 </v>
       </c>
       <c r="C34" s="10" t="s">
@@ -12651,7 +12651,7 @@
         <v>1844</v>
       </c>
       <c r="B35" s="4" t="str">
-        <f>LEFT(A35,20)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Resolución N° 6/003 </v>
       </c>
       <c r="C35" s="10" t="s">
@@ -12672,7 +12672,7 @@
         <v>2346</v>
       </c>
       <c r="B36" s="4" t="str">
-        <f>LEFT(A36,20)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Resolución N° 6/003 </v>
       </c>
       <c r="C36" s="10" t="s">
@@ -12693,7 +12693,7 @@
         <v>3014</v>
       </c>
       <c r="B37" s="4" t="str">
-        <f>LEFT(A37,20)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Resolución N° 7/003 </v>
       </c>
       <c r="C37" s="10" t="s">
@@ -12714,7 +12714,7 @@
         <v>1842</v>
       </c>
       <c r="B38" s="4" t="str">
-        <f>LEFT(A38,20)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Resolución N° 8/003 </v>
       </c>
       <c r="C38" s="10" t="s">
@@ -12735,7 +12735,7 @@
         <v>2140</v>
       </c>
       <c r="B39" s="4" t="str">
-        <f>LEFT(A39,20)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Resolución N° 8/003 </v>
       </c>
       <c r="C39" s="10" t="s">
@@ -12756,7 +12756,7 @@
         <v>2189</v>
       </c>
       <c r="B40" s="4" t="str">
-        <f>LEFT(A40,20)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Resolución N° 9/003 </v>
       </c>
       <c r="C40" s="10" t="s">
@@ -13338,7 +13338,7 @@
         <v>1914</v>
       </c>
       <c r="B74" s="4" t="str">
-        <f>LEFT(A74,20)</f>
+        <f t="shared" ref="B74:B83" si="1">LEFT(A74,20)</f>
         <v xml:space="preserve">Resolución N° 2/004 </v>
       </c>
       <c r="C74" s="10" t="s">
@@ -13359,7 +13359,7 @@
         <v>1838</v>
       </c>
       <c r="B75" s="4" t="str">
-        <f>LEFT(A75,20)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Resolución N° 3/004 </v>
       </c>
       <c r="C75" s="10" t="s">
@@ -13380,7 +13380,7 @@
         <v>2406</v>
       </c>
       <c r="B76" s="4" t="str">
-        <f>LEFT(A76,20)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Resolución N° 3/004 </v>
       </c>
       <c r="C76" s="10" t="s">
@@ -13401,7 +13401,7 @@
         <v>1828</v>
       </c>
       <c r="B77" s="4" t="str">
-        <f>LEFT(A77,20)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Resolución N° 4/004 </v>
       </c>
       <c r="C77" s="10" t="s">
@@ -13422,7 +13422,7 @@
         <v>2436</v>
       </c>
       <c r="B78" s="4" t="str">
-        <f>LEFT(A78,20)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Resolución N° 4/004 </v>
       </c>
       <c r="C78" s="10" t="s">
@@ -13443,7 +13443,7 @@
         <v>2237</v>
       </c>
       <c r="B79" s="4" t="str">
-        <f>LEFT(A79,20)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Resolución N° 5/004 </v>
       </c>
       <c r="C79" s="10" t="s">
@@ -13464,7 +13464,7 @@
         <v>1834</v>
       </c>
       <c r="B80" s="4" t="str">
-        <f>LEFT(A80,20)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Resolución N° 8/004 </v>
       </c>
       <c r="C80" s="10" t="s">
@@ -13485,7 +13485,7 @@
         <v>2093</v>
       </c>
       <c r="B81" s="4" t="str">
-        <f>LEFT(A81,20)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Resolución N° 8/004 </v>
       </c>
       <c r="C81" s="10" t="s">
@@ -13506,7 +13506,7 @@
         <v>1840</v>
       </c>
       <c r="B82" s="4" t="str">
-        <f>LEFT(A82,20)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Resolución N° 9/004 </v>
       </c>
       <c r="C82" s="10" t="s">
@@ -13527,7 +13527,7 @@
         <v>2083</v>
       </c>
       <c r="B83" s="4" t="str">
-        <f>LEFT(A83,20)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Resolución N° 9/004 </v>
       </c>
       <c r="C83" s="10" t="s">
@@ -14959,7 +14959,7 @@
         <v>1925</v>
       </c>
       <c r="B167" s="4" t="str">
-        <f>LEFT(A167,20)</f>
+        <f t="shared" ref="B167:B175" si="2">LEFT(A167,20)</f>
         <v xml:space="preserve">Resolución N° 2/005 </v>
       </c>
       <c r="C167" s="4" t="s">
@@ -14980,7 +14980,7 @@
         <v>1809</v>
       </c>
       <c r="B168" s="4" t="str">
-        <f>LEFT(A168,20)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Resolución N° 3/005 </v>
       </c>
       <c r="C168" s="4" t="s">
@@ -15001,7 +15001,7 @@
         <v>2649</v>
       </c>
       <c r="B169" s="4" t="str">
-        <f>LEFT(A169,20)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Resolución N° 4/005 </v>
       </c>
       <c r="C169" s="4" t="s">
@@ -15022,7 +15022,7 @@
         <v>1815</v>
       </c>
       <c r="B170" s="4" t="str">
-        <f>LEFT(A170,20)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Resolución N° 5/005 </v>
       </c>
       <c r="C170" s="4" t="s">
@@ -15043,7 +15043,7 @@
         <v>2023</v>
       </c>
       <c r="B171" s="4" t="str">
-        <f>LEFT(A171,20)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Resolución N° 5/005 </v>
       </c>
       <c r="C171" s="4" t="s">
@@ -15064,7 +15064,7 @@
         <v>1813</v>
       </c>
       <c r="B172" s="4" t="str">
-        <f>LEFT(A172,20)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Resolución N° 6/005 </v>
       </c>
       <c r="C172" s="4" t="s">
@@ -15085,7 +15085,7 @@
         <v>3032</v>
       </c>
       <c r="B173" s="4" t="str">
-        <f>LEFT(A173,20)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Resolución N° 7/005 </v>
       </c>
       <c r="C173" s="4" t="s">
@@ -15106,7 +15106,7 @@
         <v>1821</v>
       </c>
       <c r="B174" s="4" t="str">
-        <f>LEFT(A174,20)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Resolución N° 8/005 </v>
       </c>
       <c r="C174" s="4" t="s">
@@ -15127,7 +15127,7 @@
         <v>2368</v>
       </c>
       <c r="B175" s="4" t="str">
-        <f>LEFT(A175,20)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Resolución N° 8/005 </v>
       </c>
       <c r="C175" s="4" t="s">
@@ -15879,7 +15879,7 @@
         <v>2803</v>
       </c>
       <c r="B219" s="4" t="str">
-        <f>LEFT(A219,20)</f>
+        <f t="shared" ref="B219:B227" si="3">LEFT(A219,20)</f>
         <v xml:space="preserve">Resolución N° 2/006 </v>
       </c>
       <c r="C219" s="4" t="s">
@@ -15900,7 +15900,7 @@
         <v>1746</v>
       </c>
       <c r="B220" s="4" t="str">
-        <f>LEFT(A220,20)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Resolución N° 3/006 </v>
       </c>
       <c r="C220" s="4" t="s">
@@ -15921,7 +15921,7 @@
         <v>2194</v>
       </c>
       <c r="B221" s="4" t="str">
-        <f>LEFT(A221,20)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Resolución N° 4/006 </v>
       </c>
       <c r="C221" s="4" t="s">
@@ -15942,7 +15942,7 @@
         <v>1758</v>
       </c>
       <c r="B222" s="4" t="str">
-        <f>LEFT(A222,20)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Resolución N° 5/006 </v>
       </c>
       <c r="C222" s="4" t="s">
@@ -15963,7 +15963,7 @@
         <v>2204</v>
       </c>
       <c r="B223" s="4" t="str">
-        <f>LEFT(A223,20)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Resolución N° 5/006 </v>
       </c>
       <c r="C223" s="4" t="s">
@@ -15984,7 +15984,7 @@
         <v>3050</v>
       </c>
       <c r="B224" s="4" t="str">
-        <f>LEFT(A224,20)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Resolución N° 6/006 </v>
       </c>
       <c r="C224" s="4" t="s">
@@ -16005,7 +16005,7 @@
         <v>2633</v>
       </c>
       <c r="B225" s="4" t="str">
-        <f>LEFT(A225,20)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Resolución N° 7/006 </v>
       </c>
       <c r="C225" s="4" t="s">
@@ -16026,7 +16026,7 @@
         <v>2434</v>
       </c>
       <c r="B226" s="4" t="str">
-        <f>LEFT(A226,20)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Resolución N° 8/006 </v>
       </c>
       <c r="C226" s="4" t="s">
@@ -16047,7 +16047,7 @@
         <v>2781</v>
       </c>
       <c r="B227" s="4" t="str">
-        <f>LEFT(A227,20)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Resolución N° 9/006 </v>
       </c>
       <c r="C227" s="4" t="s">
@@ -17751,7 +17751,7 @@
         <v>2639</v>
       </c>
       <c r="B327" s="4" t="str">
-        <f>LEFT(A327,20)</f>
+        <f t="shared" ref="B327:B336" si="4">LEFT(A327,20)</f>
         <v xml:space="preserve">Resolución N° 2/007 </v>
       </c>
       <c r="C327" s="4" t="s">
@@ -17772,7 +17772,7 @@
         <v>1714</v>
       </c>
       <c r="B328" s="4" t="str">
-        <f>LEFT(A328,20)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Resolución N° 3/007 </v>
       </c>
       <c r="C328" s="4" t="s">
@@ -17793,7 +17793,7 @@
         <v>2414</v>
       </c>
       <c r="B329" s="4" t="str">
-        <f>LEFT(A329,20)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Resolución N° 3/007 </v>
       </c>
       <c r="C329" s="4" t="s">
@@ -17814,7 +17814,7 @@
         <v>3223</v>
       </c>
       <c r="B330" s="4" t="str">
-        <f>LEFT(A330,20)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Resolución N° 4/007 </v>
       </c>
       <c r="C330" s="4" t="s">
@@ -17835,7 +17835,7 @@
         <v>1710</v>
       </c>
       <c r="B331" s="4" t="str">
-        <f>LEFT(A331,20)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Resolución N° 5/007 </v>
       </c>
       <c r="C331" s="4" t="s">
@@ -17856,7 +17856,7 @@
         <v>1687</v>
       </c>
       <c r="B332" s="4" t="str">
-        <f>LEFT(A332,20)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Resolución N° 6/007 </v>
       </c>
       <c r="C332" s="4" t="s">
@@ -17877,7 +17877,7 @@
         <v>2326</v>
       </c>
       <c r="B333" s="4" t="str">
-        <f>LEFT(A333,20)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Resolución N° 6/007 </v>
       </c>
       <c r="C333" s="4" t="s">
@@ -17898,7 +17898,7 @@
         <v>1693</v>
       </c>
       <c r="B334" s="4" t="str">
-        <f>LEFT(A334,20)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Resolución N° 7/007 </v>
       </c>
       <c r="C334" s="4" t="s">
@@ -17919,7 +17919,7 @@
         <v>1689</v>
       </c>
       <c r="B335" s="4" t="str">
-        <f>LEFT(A335,20)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Resolución N° 8/007 </v>
       </c>
       <c r="C335" s="4" t="s">
@@ -17940,7 +17940,7 @@
         <v>1695</v>
       </c>
       <c r="B336" s="4" t="str">
-        <f>LEFT(A336,20)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Resolución N° 9/007 </v>
       </c>
       <c r="C336" s="4" t="s">
